--- a/Testing/13testing/Prueba exploratoria del 1er Sprint.xlsx
+++ b/Testing/13testing/Prueba exploratoria del 1er Sprint.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -220,9 +220,21 @@
     <t>Debe contener los paquetes model, repository, service y controller.</t>
   </si>
   <si>
+    <t>Descargar Postman</t>
+  </si>
+  <si>
+    <t>Que descargue correctamente</t>
+  </si>
+  <si>
     <t>Gabriel</t>
   </si>
   <si>
+    <t>Registrarse</t>
+  </si>
+  <si>
+    <t>Acceder satisfactoriamente</t>
+  </si>
+  <si>
     <t>Crud</t>
   </si>
   <si>
@@ -232,8 +244,32 @@
     <t>Utilizar Spring Data JPA</t>
   </si>
   <si>
+    <t>Hacer una peticion POST</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-</t>
+Esperar el servicio devuelva un mensaje no autorizado</t>
+  </si>
+  <si>
+    <t>Hacer una peticion PUT</t>
+  </si>
+  <si>
+    <t>Se espera el servicio nos de un mensaje no autorizado err 401</t>
+  </si>
+  <si>
+    <t>se espera el servicio nos de un mensaje de parametro incorrecto</t>
+  </si>
+  <si>
+    <t>se espera el servicio nos de un mensaje de incorrecto</t>
+  </si>
+  <si>
+    <t>Hacer una peticion DELETE</t>
+  </si>
+  <si>
+    <t>Se espera el servicio de un servicio no autorizado 401</t>
+  </si>
+  <si>
+    <t>Se espera el servicio de un servicio no autorizado 200</t>
   </si>
   <si>
     <t>Comprobar el desarrollo de la API de categorías y sus nuevos métodos</t>
@@ -764,42 +800,42 @@
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,8 +1925,12 @@
       <c r="E41" s="54">
         <v>1.0</v>
       </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
+      <c r="F41" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" s="30" t="s">
         <v>42</v>
       </c>
@@ -1904,51 +1944,81 @@
         <v>19</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="54">
         <v>2.0</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="F42" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="54">
+      <c r="A43" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="30">
         <v>3.0</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="J43" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="K43" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="54">
-        <v>4.0</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="57">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -1960,9 +2030,15 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="57">
+        <v>3.0</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>81</v>
+      </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -1970,516 +2046,487 @@
       <c r="L45" s="18"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="57">
+        <v>4.0</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="35">
-        <v>9.0</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="49" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="57">
+        <v>5.0</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="57">
+        <v>6.0</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J49" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="57">
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="54">
         <v>1.0</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="59" t="s">
+      <c r="F50" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I50" s="30">
         <v>3.0</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J50" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="54">
+        <v>2.0</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="54">
         <v>3.0</v>
       </c>
-      <c r="K47" s="59" t="s">
+      <c r="F52" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="44">
+        <v>12.0</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="J53" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="K53" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="57">
+      <c r="L53" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="66">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="57">
+      <c r="F54" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="66">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="57">
+      <c r="F55" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="66">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="57">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="57">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
+      <c r="F56" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+    </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="35">
-        <v>10.0</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="57">
+      <c r="A57" s="30">
+        <v>13.0</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="35">
         <v>1.0</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="F57" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="J57" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I61" s="30">
         <v>3.0</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J61" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="K61" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="35">
         <v>3.0</v>
       </c>
-      <c r="K57" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" s="54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="57">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="57">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="57">
+      <c r="F63" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="35">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="57">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="57">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="F64" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+    </row>
     <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="30">
-        <v>11.0</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="J66" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="K66" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="F67" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="F68" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H69" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="J69" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="K69" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="F70" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="F72" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="30">
-        <v>13.0</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="J73" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="K73" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="F74" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="F76" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="30">
-        <v>14.0</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="G77" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="J77" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="K77" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="F78" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G78" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="F80" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-    </row>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3368,24 +3415,8 @@
     <row r="966" ht="15.75" customHeight="1"/>
     <row r="967" ht="15.75" customHeight="1"/>
     <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="153">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -3468,28 +3499,40 @@
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="L27:L31"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="H36:H40"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
@@ -3497,10 +3540,13 @@
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="I43:I48"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:K48"/>
+    <mergeCell ref="L43:L48"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
@@ -3508,28 +3554,22 @@
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="K73:K76"/>
-    <mergeCell ref="L73:L76"/>
-    <mergeCell ref="K66:K68"/>
-    <mergeCell ref="L66:L68"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="K69:K72"/>
-    <mergeCell ref="L69:L72"/>
-    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
